--- a/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Sicco\Document\3_Report\Daily_October\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Report" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -58,17 +63,37 @@
   </si>
   <si>
     <t>Báo cáo công việc hàng ngày - tháng 10/2014</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Chỉnh sửa để code đã có chạy.
+- Công việc 2: Biuld màn hình hiển thị cho phần chức năng " Công việc " ( thêm công việc, tất cả công việc, công việc đã giao, công việc được giao).</t>
+  </si>
+  <si>
+    <t>Chậm tiến độ</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: option menu ở FragmentCongViec khi kéo NavigationDrawer ra vẫn chưa ẩn đi được.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: đang tìm hiểu vẫn chưa có phương hướng cụ thể.</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành.
+- Công việc 2: 50%</t>
+  </si>
+  <si>
+    <t>Tiếp tục công việc 2 , giải quyết vấn đề 1 và code để đổ data ra listview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +101,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -84,7 +109,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -241,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +333,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,96 +509,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="92.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="31.5">
+    <row r="2" spans="2:3" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75">
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>41921</v>
+        <v>41925</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="2:3" ht="30">
+    <row r="5" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:3" ht="18.75">
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <f>B4+1</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:3" ht="30">
+    <row r="14" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -579,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="30">
+    <row r="15" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -587,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
@@ -595,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
@@ -603,13 +632,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -617,26 +646,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" ht="18.75">
+    <row r="22" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <f>B13+1</f>
-        <v>41923</v>
+        <v>41927</v>
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:3" ht="30">
+    <row r="23" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -644,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="30">
+    <row r="24" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -652,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
@@ -660,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
@@ -668,13 +697,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>6</v>
       </c>
@@ -682,26 +711,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" ht="18.75">
+    <row r="31" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <f>B22+1</f>
-        <v>41924</v>
+        <v>41928</v>
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="2:3" ht="30">
+    <row r="32" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>0</v>
       </c>
@@ -709,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="30">
+    <row r="33" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
@@ -717,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
@@ -725,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>3</v>
       </c>
@@ -733,13 +762,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>6</v>
       </c>
@@ -747,13 +776,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>

--- a/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -83,6 +83,20 @@
   </si>
   <si>
     <t>Tiếp tục công việc 2 , giải quyết vấn đề 1 và code để đổ data ra listview</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Build màn hình hiển thị cho phần chức năng " Công việc " ( thêm công việc, tất cả công việc, công việc đã giao, công việc được giao).
+- Công việc 2: Lấy data từ API đổ ra listview</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành
+- Công việc 2: 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vấn đề 2: </t>
+  </si>
+  <si>
+    <t>Tiếp tục công việc 2.</t>
   </si>
 </sst>
 </file>
@@ -512,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,12 +614,12 @@
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -613,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
@@ -621,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -643,20 +657,22 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="6">

--- a/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -97,6 +97,29 @@
   </si>
   <si>
     <t>Tiếp tục công việc 2.</t>
+  </si>
+  <si>
+    <t>- Công việc 1: biuld màn hình Chi tiết công việc.
+- Công việc 2: Code API lấy data đổ ra màn hình.</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành
+- Công việc 2: 70%</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: hiển thị danh sách Thảo luận chua chính xác về cả bố cục và data.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: chưa khắc phục được hiện tượng khi chuyển sang activity chi tiết công việc bị tự đông focus vào ô edittext nhập nội dung  thảo luận</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: đang tìm cách giải quyết ( dự định chuyển sang làm scrollview)</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: đang tìm hiểu</t>
+  </si>
+  <si>
+    <t>giải quyế các vấn đề trên + code chức năng màn hình thêm công việc.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +242,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C39"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -751,58 +777,63 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/LuanDT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="39">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -120,6 +120,34 @@
   </si>
   <si>
     <t>giải quyế các vấn đề trên + code chức năng màn hình thêm công việc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công việc 1:.
+- Công việc 2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công việc 1: 
+- Công việc 2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vấn đề 1: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công việc 1: code tính năng màn hình thêm công việc.
+- Công việc 2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công việc 1: 30%
+- Công việc 2: </t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: chưa tạo được dialog dạng lịch bàn để chọn ngày.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: đang tham khảo google.</t>
+  </si>
+  <si>
+    <t>tiếp tục công việc trên.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +273,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F39"/>
+  <dimension ref="B2:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +632,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -606,13 +640,13 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -620,7 +654,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -665,7 +699,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -673,13 +707,13 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -687,7 +721,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
@@ -732,7 +766,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -740,13 +774,13 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -754,7 +788,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="9"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
@@ -797,7 +831,7 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -805,7 +839,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
@@ -814,7 +848,7 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -822,7 +856,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="3" t="s">
         <v>29</v>
       </c>
@@ -835,8 +869,668 @@
         <v>30</v>
       </c>
     </row>
+    <row r="40" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>41934</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="12"/>
+      <c r="C45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="12"/>
+      <c r="C47" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <v>41935</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="12"/>
+      <c r="C54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="12"/>
+      <c r="C56" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <v>41936</v>
+      </c>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="12"/>
+      <c r="C63" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="12"/>
+      <c r="C65" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
+        <v>41937</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="12"/>
+      <c r="C72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="12"/>
+      <c r="C74" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B76" s="6">
+        <v>41938</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="12"/>
+      <c r="C81" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="12"/>
+      <c r="C83" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
+        <v>41939</v>
+      </c>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="12"/>
+      <c r="C90" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="12"/>
+      <c r="C92" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B94" s="6">
+        <v>41940</v>
+      </c>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="12"/>
+      <c r="C99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="12"/>
+      <c r="C101" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
+        <v>41941</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" s="12"/>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="12"/>
+      <c r="C110" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <v>41942</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="12"/>
+      <c r="C117" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="12"/>
+      <c r="C119" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B121" s="6">
+        <v>41943</v>
+      </c>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" s="9"/>
+      <c r="C126" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="9"/>
+      <c r="C128" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="26">
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
